--- a/Lab3/Lab 3.xlsx
+++ b/Lab3/Lab 3.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rit0-my.sharepoint.com/personal/twh4619_rit_edu/Documents/Year 3 (2024 - 2025)/Interface and Digital Electronics/Lab3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rit0-my.sharepoint.com/personal/twh4619_rit_edu/Documents/Year 3 (2024 - 2025)/Interface and Digital Electronics/IDELabs/Lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E50E6A-9F69-4C31-A6FF-2E685929E193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{19E50E6A-9F69-4C31-A6FF-2E685929E193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2A471A5-4B5B-476B-8989-2FA48705FEAE}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{30B0A469-1ABF-4316-ACC0-52FC7C3B041A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Prelab" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <r>
       <t>R</t>
@@ -127,9 +126,6 @@
     <t>Vout (V)</t>
   </si>
   <si>
-    <t>IRL (ma)</t>
-  </si>
-  <si>
     <t>IRL (mA)</t>
   </si>
 </sst>
@@ -159,7 +155,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +165,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,31 +320,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -363,1270 +361,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Lab 3 Prelab</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vout (V)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.89</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.43</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.3499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-59A6-44BB-A005-1CC3774FA00E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IRL (mA)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.89</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.43</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-59A6-44BB-A005-1CC3774FA00E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1234556304"/>
-        <c:axId val="1234556784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1234556304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Distance</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (mm)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1234556784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1234556784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Vout (V) and IRL (mA)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1234556304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IRL (mA)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.89</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.43</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C86C-4204-AFEA-61C738F7131D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1092260096"/>
-        <c:axId val="1044971024"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vout (V)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.89</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.43</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.3499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C86C-4204-AFEA-61C738F7131D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1240718736"/>
-        <c:axId val="1240719696"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1092260096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1044971024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1044971024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1092260096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1240719696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1240718736"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1240718736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1240719696"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1681,7 +415,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Prelab!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1716,7 +450,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$13</c:f>
+              <c:f>Prelab!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1758,7 +492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:f>Prelab!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1992,7 +726,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2047,7 +781,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Prelab!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2082,7 +816,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$13</c:f>
+              <c:f>Prelab!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2124,7 +858,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$13</c:f>
+              <c:f>Prelab!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2358,7 +1092,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2373,6 +1107,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vout (V) 10kΩ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2413,7 +1172,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$2</c:f>
+              <c:f>'Part 1'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2448,7 +1207,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$25</c:f>
+              <c:f>'Part 1'!$A$3:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -2526,7 +1285,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$25</c:f>
+              <c:f>'Part 1'!$B$3:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -2796,7 +1555,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2811,6 +1570,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IRL (mA) 10kΩ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2851,11 +1635,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$2</c:f>
+              <c:f>'Part 1'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IRL (ma)</c:v>
+                  <c:v>IRL (mA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2886,7 +1670,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$25</c:f>
+              <c:f>'Part 1'!$A$3:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -2964,7 +1748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$25</c:f>
+              <c:f>'Part 1'!$C$3:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -3234,7 +2018,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3249,6 +2033,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vout (V) 20kΩ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3289,7 +2098,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$2</c:f>
+              <c:f>'Part 1'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3301,7 +2110,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3312,11 +2121,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3324,7 +2133,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$25</c:f>
+              <c:f>'Part 1'!$A$3:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -3402,7 +2211,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$3:$D$25</c:f>
+              <c:f>'Part 1'!$D$3:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -3617,6 +2426,469 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1340876432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IRL (mA) 20kΩ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 1'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRL (mA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Part 1'!$A$3:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Part 1'!$E$3:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.11852589641434264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11364541832669324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10996015936254983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10707171314741036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10408366533864542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10224103585657371</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10159362549800798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10004980079681275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.890438247011954E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8157370517928305E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.7061752988047811E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.671314741035858E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.686254980079681E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7559760956175315E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8655378486055781E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.950199203187253E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0139442231075714E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.9422310756972125E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7270916334661352E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0597609561752993E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6165338645418309E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.342629482071713E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.223107569721115E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5B5-41A7-910B-CEFA8A06D794}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="744081328"/>
+        <c:axId val="744065008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="744081328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744065008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="744065008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744081328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3912,46 +3184,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7048,543 +6280,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>464343</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350043</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>502443</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388143</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19219DB-6060-BFA3-3A63-C959603B5B94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305BFEA2-3793-DEAB-0D3A-DF06DC7F2103}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7604,88 +6320,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>445293</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>645318</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>483393</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA35510E-E99A-B18A-E375-77DB2531FA64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>445293</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>483393</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305BFEA2-3793-DEAB-0D3A-DF06DC7F2103}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>197643</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>235743</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7704,7 +6348,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7717,16 +6361,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>78581</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>354806</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>116681</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7753,16 +6397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350043</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>73818</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388143</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7789,16 +6433,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>173831</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>211931</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>526256</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7818,6 +6462,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>550068</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A4168F-1CA9-F76E-BC99-EB3EF1FC3F7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8146,18 +6826,18 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" activeCellId="1" sqref="B2:B13 D2:D13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -8342,7 +7022,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" activeCellId="1" sqref="A2:A25 D2:D25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8351,466 +7031,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>9</v>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>0</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>3.92</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <f t="shared" ref="C3:C25" si="0">(5-B3)/(8.068+1.96)</f>
         <v>0.10769844435580377</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>2.62</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="7">
         <f>(5-D3)/((8.068+1.96+8.079+1.973))</f>
         <v>0.11852589641434264</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>3.9969999999999999</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <f t="shared" si="0"/>
         <v>0.10001994415636221</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>2.718</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <f t="shared" ref="E4:E25" si="1">(5-D4)/((8.068+1.96+8.079+1.973))</f>
         <v>0.11364541832669324</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>4.0439999999999996</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>9.5333067411248557E-2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>2.7919999999999998</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>0.10996015936254983</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>4.0620000000000003</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>9.3538093338651762E-2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>2.85</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>0.10707171314741036</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>4.0839999999999996</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>9.1344236138811374E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>2.91</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>0.10408366533864542</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>4.0869999999999997</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>9.1045073793378575E-2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>2.9470000000000001</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <f t="shared" si="1"/>
         <v>0.10224103585657371</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>4.0880000000000001</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>9.0945353011567615E-2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>2.96</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <f t="shared" si="1"/>
         <v>0.10159362549800798</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>4.08</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>9.1743119266055051E-2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>2.9910000000000001</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
         <v>0.10004980079681275</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>4.0659999999999998</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>9.3139210211408086E-2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>3.0139999999999998</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>9.890438247011954E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>4.0540000000000003</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>9.4335859593139199E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>3.0289999999999999</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>9.8157370517928305E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <v>4.0540000000000003</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>9.4335859593139199E-2</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>3.0510000000000002</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>9.7061752988047811E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>4.05</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>9.4734742720382958E-2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>3.0579999999999998</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>9.671314741035858E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>4.0449999999999999</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>9.5233346629437596E-2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>3.0550000000000002</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>9.686254980079681E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>4.05</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>9.4734742720382958E-2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>3.0409999999999999</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
         <v>9.7559760956175315E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>4.08</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>9.1743119266055051E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <v>3.0190000000000001</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>9.8655378486055781E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>4.1130000000000004</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18">
         <f t="shared" si="0"/>
         <v>8.8452333466294344E-2</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>3.0019999999999998</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="7">
         <f t="shared" si="1"/>
         <v>9.950199203187253E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>20</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <v>4.2939999999999996</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19">
         <f t="shared" si="0"/>
         <v>7.0402871958516203E-2</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <v>3.19</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="7">
         <f t="shared" si="1"/>
         <v>9.0139442231075714E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>25</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <v>4.4569999999999999</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20">
         <f t="shared" si="0"/>
         <v>5.4148384523334682E-2</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>3.6059999999999999</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="7">
         <f t="shared" si="1"/>
         <v>6.9422310756972125E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>30</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="6">
         <v>4.516</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21">
         <f t="shared" si="0"/>
         <v>4.8264858396489835E-2</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="6">
         <v>3.85</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>5.7270916334661352E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>35</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="6">
         <v>4.548</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22">
         <f t="shared" si="0"/>
         <v>4.5073793378540089E-2</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="6">
         <v>3.984</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="7">
         <f t="shared" si="1"/>
         <v>5.0597609561752993E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>40</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="6">
         <v>4.57</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23">
         <f t="shared" si="0"/>
         <v>4.2879936178699618E-2</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>4.0730000000000004</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="7">
         <f t="shared" si="1"/>
         <v>4.6165338645418309E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>45</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="6">
         <v>4.5730000000000004</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24">
         <f t="shared" si="0"/>
         <v>4.2580773833266819E-2</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <v>4.1280000000000001</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="7">
         <f t="shared" si="1"/>
         <v>4.342629482071713E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="12">
+      <c r="A25" s="8">
         <v>50</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="8">
         <v>4.5609999999999999</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="9">
         <f t="shared" si="0"/>
         <v>4.3777423214998015E-2</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="8">
         <v>4.1520000000000001</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="10">
         <f t="shared" si="1"/>
         <v>4.223107569721115E-2</v>
       </c>
@@ -8825,263 +7505,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F4F3A9-A728-46F3-A1DB-8F2D98F65CE8}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="9">
-        <v>15</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="9">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="9">
-        <v>25</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="9">
-        <v>30</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="9">
-        <v>35</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="9">
-        <v>40</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="9">
-        <v>45</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="12">
-        <v>50</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f9dd8f4f-3b8b-4768-aba7-bbd379e0736b}" enabled="0" method="" siteId="{f9dd8f4f-3b8b-4768-aba7-bbd379e0736b}" removed="1"/>

--- a/Lab3/Lab 3.xlsx
+++ b/Lab3/Lab 3.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rit0-my.sharepoint.com/personal/twh4619_rit_edu/Documents/Year 3 (2024 - 2025)/Interface and Digital Electronics/IDELabs/Lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{19E50E6A-9F69-4C31-A6FF-2E685929E193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2A471A5-4B5B-476B-8989-2FA48705FEAE}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{19E50E6A-9F69-4C31-A6FF-2E685929E193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D162285F-1BC1-449E-B965-D845FE9D74FC}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{30B0A469-1ABF-4316-ACC0-52FC7C3B041A}"/>
   </bookViews>
   <sheets>
     <sheet name="Prelab" sheetId="1" r:id="rId1"/>
-    <sheet name="Part 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Part 1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -175,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -293,15 +293,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -324,7 +315,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -343,6 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,73 +1281,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>3.92</c:v>
+                  <c:v>4.9189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9969999999999999</c:v>
+                  <c:v>3.1749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0439999999999996</c:v>
+                  <c:v>0.72699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0620000000000003</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0839999999999996</c:v>
+                  <c:v>0.72899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0869999999999997</c:v>
+                  <c:v>0.77100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0880000000000001</c:v>
+                  <c:v>0.81699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.08</c:v>
+                  <c:v>1.6519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0659999999999998</c:v>
+                  <c:v>2.5630000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0540000000000003</c:v>
+                  <c:v>3.1259999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0540000000000003</c:v>
+                  <c:v>3.42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.05</c:v>
+                  <c:v>3.871</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0449999999999999</c:v>
+                  <c:v>4.0380000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.05</c:v>
+                  <c:v>4.2167000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.08</c:v>
+                  <c:v>4.274</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1130000000000004</c:v>
+                  <c:v>4.319</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.2939999999999996</c:v>
+                  <c:v>4.5759999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4569999999999999</c:v>
+                  <c:v>4.6559999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.516</c:v>
+                  <c:v>4.641</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.548</c:v>
+                  <c:v>4.58</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.57</c:v>
+                  <c:v>4.5060000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.5730000000000004</c:v>
+                  <c:v>4.5229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.5609999999999999</c:v>
+                  <c:v>4.585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,7 +1355,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B131-455C-92B4-90E480A27167}"/>
+              <c16:uniqueId val="{00000000-A9BD-4E5B-A762-A2AAB1F2FF93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1753,73 +1744,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.10769844435580377</c:v>
+                  <c:v>8.0773833266853234E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10001994415636221</c:v>
+                  <c:v>0.1819904268049462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5333067411248557E-2</c:v>
+                  <c:v>0.42610690067810136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3538093338651762E-2</c:v>
+                  <c:v>0.42780215396888716</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1344236138811374E-2</c:v>
+                  <c:v>0.42590745911447953</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1045073793378575E-2</c:v>
+                  <c:v>0.42171918627842048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0945353011567615E-2</c:v>
+                  <c:v>0.4171320303151177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1743119266055051E-2</c:v>
+                  <c:v>0.33386517750299166</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3139210211408086E-2</c:v>
+                  <c:v>0.24301954527323497</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.4335859593139199E-2</c:v>
+                  <c:v>0.18687674511368171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4335859593139199E-2</c:v>
+                  <c:v>0.15755883526126849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4734742720382958E-2</c:v>
+                  <c:v>0.1125847626645393</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.5233346629437596E-2</c:v>
+                  <c:v>9.5931392102114071E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.4734742720382958E-2</c:v>
+                  <c:v>7.8111288392500977E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.1743119266055051E-2</c:v>
+                  <c:v>7.2397287594734752E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.8452333466294344E-2</c:v>
+                  <c:v>6.7909852413242933E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.0402871958516203E-2</c:v>
+                  <c:v>4.228161148783411E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4148384523334682E-2</c:v>
+                  <c:v>3.4303948942959746E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8264858396489835E-2</c:v>
+                  <c:v>3.5799760670123658E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5073793378540089E-2</c:v>
+                  <c:v>4.1882728360590343E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.2879936178699618E-2</c:v>
+                  <c:v>4.926206621459911E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.2580773833266819E-2</c:v>
+                  <c:v>4.7566812923813359E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3777423214998015E-2</c:v>
+                  <c:v>4.1384124451535706E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,7 +1818,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2CB8-4571-A236-F29D093AF942}"/>
+              <c16:uniqueId val="{00000000-8C43-4FED-BAF0-1BED52BE68A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2216,73 +2207,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>2.62</c:v>
+                  <c:v>4.8099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.718</c:v>
+                  <c:v>1.2250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7919999999999998</c:v>
+                  <c:v>0.73719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.85</c:v>
+                  <c:v>0.69840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.91</c:v>
+                  <c:v>0.68310000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9470000000000001</c:v>
+                  <c:v>0.68740000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.96</c:v>
+                  <c:v>0.69710000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9910000000000001</c:v>
+                  <c:v>0.71560000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0139999999999998</c:v>
+                  <c:v>0.73499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0289999999999999</c:v>
+                  <c:v>0.75139999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0510000000000002</c:v>
+                  <c:v>0.76500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0579999999999998</c:v>
+                  <c:v>0.78990000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0550000000000002</c:v>
+                  <c:v>0.80589999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0409999999999999</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0190000000000001</c:v>
+                  <c:v>0.88019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0019999999999998</c:v>
+                  <c:v>1.3460000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.19</c:v>
+                  <c:v>3.43</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.6059999999999999</c:v>
+                  <c:v>4.0780000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.85</c:v>
+                  <c:v>4.2430000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.984</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0730000000000004</c:v>
+                  <c:v>4.0430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.1280000000000001</c:v>
+                  <c:v>4.0179999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.1520000000000001</c:v>
+                  <c:v>4.0815000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2290,7 +2281,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FD65-42E2-8F4C-DBB64B80A492}"/>
+              <c16:uniqueId val="{00000000-6A47-481B-9A90-791B0DD47E6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2679,73 +2670,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.11852589641434264</c:v>
+                  <c:v>9.4621513944223318E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11364541832669324</c:v>
+                  <c:v>0.18799800796812749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10996015936254983</c:v>
+                  <c:v>0.21229083665338649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10707171314741036</c:v>
+                  <c:v>0.21422310756972113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10408366533864542</c:v>
+                  <c:v>0.21498505976095622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10224103585657371</c:v>
+                  <c:v>0.21477091633466136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10159362549800798</c:v>
+                  <c:v>0.2142878486055777</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10004980079681275</c:v>
+                  <c:v>0.21336653386454185</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.890438247011954E-2</c:v>
+                  <c:v>0.21240039840637451</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8157370517928305E-2</c:v>
+                  <c:v>0.21158366533864542</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7061752988047811E-2</c:v>
+                  <c:v>0.21090637450199207</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.671314741035858E-2</c:v>
+                  <c:v>0.20966633466135459</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.686254980079681E-2</c:v>
+                  <c:v>0.20886952191235061</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.7559760956175315E-2</c:v>
+                  <c:v>0.20816733067729085</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.8655378486055781E-2</c:v>
+                  <c:v>0.20516932270916335</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.950199203187253E-2</c:v>
+                  <c:v>0.18197211155378487</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.0139442231075714E-2</c:v>
+                  <c:v>7.8187250996015936E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.9422310756972125E-2</c:v>
+                  <c:v>4.5916334661354571E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7270916334661352E-2</c:v>
+                  <c:v>3.7699203187250986E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0597609561752993E-2</c:v>
+                  <c:v>3.9840637450199196E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.6165338645418309E-2</c:v>
+                  <c:v>4.7659362549800792E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.342629482071713E-2</c:v>
+                  <c:v>4.8904382470119537E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.223107569721115E-2</c:v>
+                  <c:v>4.5742031872509956E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2753,7 +2744,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C5B5-41A7-910B-CEFA8A06D794}"/>
+              <c16:uniqueId val="{00000000-BAC0-453C-A67D-F81F7CDCD040}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6377,11 +6368,13 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A85DC37-7375-9F71-D243-F1492329CCD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1988BF22-8CC8-46B8-80E1-B35FC20A132F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6413,11 +6406,13 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF82B51-62F1-6032-5172-581556B0F7B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27144055-A5B4-42DC-AC3C-34D902BF38F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6449,11 +6444,13 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB35702D-64DA-3BC4-9603-BC642C4A9177}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BEF751-0602-4D38-852C-3CF1D6658EFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6485,11 +6482,13 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A4168F-1CA9-F76E-BC99-EB3EF1FC3F7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8B254F-CDF1-4C00-99F9-0E122C003E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6504,6 +6503,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6832,12 +6835,12 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -7018,11 +7021,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2CA89-4C23-4038-B0F6-2B75D1E8FCF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379240FB-D1B7-44EE-909B-4319BEE6CAD3}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7032,14 +7035,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -7048,13 +7051,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7063,18 +7066,18 @@
         <v>0</v>
       </c>
       <c r="B3" s="6">
-        <v>3.92</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C25" si="0">(5-B3)/(8.068+1.96)</f>
-        <v>0.10769844435580377</v>
+        <v>4.9189999999999996</v>
+      </c>
+      <c r="C3" s="17">
+        <f>(5-B3)/(8.068+1.96)</f>
+        <v>8.0773833266853234E-3</v>
       </c>
       <c r="D3" s="6">
-        <v>2.62</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="E3" s="7">
         <f>(5-D3)/((8.068+1.96+8.079+1.973))</f>
-        <v>0.11852589641434264</v>
+        <v>9.4621513944223318E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -7082,18 +7085,18 @@
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>3.9969999999999999</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.10001994415636221</v>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="C4" s="17">
+        <f t="shared" ref="C4:C25" si="0">(5-B4)/(8.068+1.96)</f>
+        <v>0.1819904268049462</v>
       </c>
       <c r="D4" s="6">
-        <v>2.718</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" ref="E4:E25" si="1">(5-D4)/((8.068+1.96+8.079+1.973))</f>
-        <v>0.11364541832669324</v>
+        <v>0.18799800796812749</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -7101,18 +7104,18 @@
         <v>2</v>
       </c>
       <c r="B5" s="6">
-        <v>4.0439999999999996</v>
-      </c>
-      <c r="C5">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
-        <v>9.5333067411248557E-2</v>
+        <v>0.42610690067810136</v>
       </c>
       <c r="D5" s="6">
-        <v>2.7919999999999998</v>
+        <v>0.73719999999999997</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>0.10996015936254983</v>
+        <v>0.21229083665338649</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -7120,18 +7123,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="6">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="C6">
+        <v>0.71</v>
+      </c>
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
-        <v>9.3538093338651762E-2</v>
+        <v>0.42780215396888716</v>
       </c>
       <c r="D6" s="6">
-        <v>2.85</v>
+        <v>0.69840000000000002</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>0.10707171314741036</v>
+        <v>0.21422310756972113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -7139,18 +7142,18 @@
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>4.0839999999999996</v>
-      </c>
-      <c r="C7">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="C7" s="17">
         <f t="shared" si="0"/>
-        <v>9.1344236138811374E-2</v>
+        <v>0.42590745911447953</v>
       </c>
       <c r="D7" s="6">
-        <v>2.91</v>
+        <v>0.68310000000000004</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>0.10408366533864542</v>
+        <v>0.21498505976095622</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -7158,18 +7161,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="6">
-        <v>4.0869999999999997</v>
-      </c>
-      <c r="C8">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
-        <v>9.1045073793378575E-2</v>
+        <v>0.42171918627842048</v>
       </c>
       <c r="D8" s="6">
-        <v>2.9470000000000001</v>
+        <v>0.68740000000000001</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>0.10224103585657371</v>
+        <v>0.21477091633466136</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -7177,18 +7180,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="6">
-        <v>4.0880000000000001</v>
-      </c>
-      <c r="C9">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
-        <v>9.0945353011567615E-2</v>
+        <v>0.4171320303151177</v>
       </c>
       <c r="D9" s="6">
-        <v>2.96</v>
+        <v>0.69710000000000005</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>0.10159362549800798</v>
+        <v>0.2142878486055777</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -7196,18 +7199,18 @@
         <v>7</v>
       </c>
       <c r="B10" s="6">
-        <v>4.08</v>
-      </c>
-      <c r="C10">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
-        <v>9.1743119266055051E-2</v>
+        <v>0.33386517750299166</v>
       </c>
       <c r="D10" s="6">
-        <v>2.9910000000000001</v>
+        <v>0.71560000000000001</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>0.10004980079681275</v>
+        <v>0.21336653386454185</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -7215,18 +7218,18 @@
         <v>8</v>
       </c>
       <c r="B11" s="6">
-        <v>4.0659999999999998</v>
-      </c>
-      <c r="C11">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="C11" s="17">
         <f t="shared" si="0"/>
-        <v>9.3139210211408086E-2</v>
+        <v>0.24301954527323497</v>
       </c>
       <c r="D11" s="6">
-        <v>3.0139999999999998</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>9.890438247011954E-2</v>
+        <v>0.21240039840637451</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -7234,18 +7237,18 @@
         <v>9</v>
       </c>
       <c r="B12" s="6">
-        <v>4.0540000000000003</v>
-      </c>
-      <c r="C12">
+        <v>3.1259999999999999</v>
+      </c>
+      <c r="C12" s="17">
         <f t="shared" si="0"/>
-        <v>9.4335859593139199E-2</v>
+        <v>0.18687674511368171</v>
       </c>
       <c r="D12" s="6">
-        <v>3.0289999999999999</v>
+        <v>0.75139999999999996</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>9.8157370517928305E-2</v>
+        <v>0.21158366533864542</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -7253,18 +7256,18 @@
         <v>10</v>
       </c>
       <c r="B13" s="6">
-        <v>4.0540000000000003</v>
-      </c>
-      <c r="C13">
+        <v>3.42</v>
+      </c>
+      <c r="C13" s="17">
         <f t="shared" si="0"/>
-        <v>9.4335859593139199E-2</v>
+        <v>0.15755883526126849</v>
       </c>
       <c r="D13" s="6">
-        <v>3.0510000000000002</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>9.7061752988047811E-2</v>
+        <v>0.21090637450199207</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -7272,18 +7275,18 @@
         <v>11</v>
       </c>
       <c r="B14" s="6">
-        <v>4.05</v>
-      </c>
-      <c r="C14">
+        <v>3.871</v>
+      </c>
+      <c r="C14" s="17">
         <f t="shared" si="0"/>
-        <v>9.4734742720382958E-2</v>
+        <v>0.1125847626645393</v>
       </c>
       <c r="D14" s="6">
-        <v>3.0579999999999998</v>
+        <v>0.78990000000000005</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>9.671314741035858E-2</v>
+        <v>0.20966633466135459</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -7291,18 +7294,18 @@
         <v>12</v>
       </c>
       <c r="B15" s="6">
-        <v>4.0449999999999999</v>
-      </c>
-      <c r="C15">
+        <v>4.0380000000000003</v>
+      </c>
+      <c r="C15" s="17">
         <f t="shared" si="0"/>
-        <v>9.5233346629437596E-2</v>
+        <v>9.5931392102114071E-2</v>
       </c>
       <c r="D15" s="6">
-        <v>3.0550000000000002</v>
+        <v>0.80589999999999995</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>9.686254980079681E-2</v>
+        <v>0.20886952191235061</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -7310,18 +7313,18 @@
         <v>13</v>
       </c>
       <c r="B16" s="6">
-        <v>4.05</v>
-      </c>
-      <c r="C16">
+        <v>4.2167000000000003</v>
+      </c>
+      <c r="C16" s="17">
         <f t="shared" si="0"/>
-        <v>9.4734742720382958E-2</v>
+        <v>7.8111288392500977E-2</v>
       </c>
       <c r="D16" s="6">
-        <v>3.0409999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>9.7559760956175315E-2</v>
+        <v>0.20816733067729085</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -7329,18 +7332,18 @@
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>4.08</v>
-      </c>
-      <c r="C17">
+        <v>4.274</v>
+      </c>
+      <c r="C17" s="17">
         <f t="shared" si="0"/>
-        <v>9.1743119266055051E-2</v>
+        <v>7.2397287594734752E-2</v>
       </c>
       <c r="D17" s="6">
-        <v>3.0190000000000001</v>
+        <v>0.88019999999999998</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
-        <v>9.8655378486055781E-2</v>
+        <v>0.20516932270916335</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -7348,18 +7351,18 @@
         <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>4.1130000000000004</v>
-      </c>
-      <c r="C18">
+        <v>4.319</v>
+      </c>
+      <c r="C18" s="17">
         <f t="shared" si="0"/>
-        <v>8.8452333466294344E-2</v>
+        <v>6.7909852413242933E-2</v>
       </c>
       <c r="D18" s="6">
-        <v>3.0019999999999998</v>
+        <v>1.3460000000000001</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>9.950199203187253E-2</v>
+        <v>0.18197211155378487</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -7367,18 +7370,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="6">
-        <v>4.2939999999999996</v>
-      </c>
-      <c r="C19">
+        <v>4.5759999999999996</v>
+      </c>
+      <c r="C19" s="17">
         <f t="shared" si="0"/>
-        <v>7.0402871958516203E-2</v>
+        <v>4.228161148783411E-2</v>
       </c>
       <c r="D19" s="6">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>9.0139442231075714E-2</v>
+        <v>7.8187250996015936E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -7386,18 +7389,18 @@
         <v>25</v>
       </c>
       <c r="B20" s="6">
-        <v>4.4569999999999999</v>
-      </c>
-      <c r="C20">
+        <v>4.6559999999999997</v>
+      </c>
+      <c r="C20" s="17">
         <f t="shared" si="0"/>
-        <v>5.4148384523334682E-2</v>
+        <v>3.4303948942959746E-2</v>
       </c>
       <c r="D20" s="6">
-        <v>3.6059999999999999</v>
+        <v>4.0780000000000003</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="1"/>
-        <v>6.9422310756972125E-2</v>
+        <v>4.5916334661354571E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -7405,18 +7408,18 @@
         <v>30</v>
       </c>
       <c r="B21" s="6">
-        <v>4.516</v>
-      </c>
-      <c r="C21">
+        <v>4.641</v>
+      </c>
+      <c r="C21" s="17">
         <f t="shared" si="0"/>
-        <v>4.8264858396489835E-2</v>
+        <v>3.5799760670123658E-2</v>
       </c>
       <c r="D21" s="6">
-        <v>3.85</v>
+        <v>4.2430000000000003</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="1"/>
-        <v>5.7270916334661352E-2</v>
+        <v>3.7699203187250986E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -7424,18 +7427,18 @@
         <v>35</v>
       </c>
       <c r="B22" s="6">
-        <v>4.548</v>
-      </c>
-      <c r="C22">
+        <v>4.58</v>
+      </c>
+      <c r="C22" s="17">
         <f t="shared" si="0"/>
-        <v>4.5073793378540089E-2</v>
+        <v>4.1882728360590343E-2</v>
       </c>
       <c r="D22" s="6">
-        <v>3.984</v>
+        <v>4.2</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>5.0597609561752993E-2</v>
+        <v>3.9840637450199196E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -7443,18 +7446,18 @@
         <v>40</v>
       </c>
       <c r="B23" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="C23">
+        <v>4.5060000000000002</v>
+      </c>
+      <c r="C23" s="17">
         <f t="shared" si="0"/>
-        <v>4.2879936178699618E-2</v>
+        <v>4.926206621459911E-2</v>
       </c>
       <c r="D23" s="6">
-        <v>4.0730000000000004</v>
+        <v>4.0430000000000001</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
-        <v>4.6165338645418309E-2</v>
+        <v>4.7659362549800792E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -7462,18 +7465,18 @@
         <v>45</v>
       </c>
       <c r="B24" s="6">
-        <v>4.5730000000000004</v>
-      </c>
-      <c r="C24">
+        <v>4.5229999999999997</v>
+      </c>
+      <c r="C24" s="17">
         <f t="shared" si="0"/>
-        <v>4.2580773833266819E-2</v>
+        <v>4.7566812923813359E-2</v>
       </c>
       <c r="D24" s="6">
-        <v>4.1280000000000001</v>
+        <v>4.0179999999999998</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>4.342629482071713E-2</v>
+        <v>4.8904382470119537E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -7481,18 +7484,18 @@
         <v>50</v>
       </c>
       <c r="B25" s="8">
-        <v>4.5609999999999999</v>
+        <v>4.585</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="0"/>
-        <v>4.3777423214998015E-2</v>
+        <v>4.1384124451535706E-2</v>
       </c>
       <c r="D25" s="8">
-        <v>4.1520000000000001</v>
-      </c>
-      <c r="E25" s="10">
+        <v>4.0815000000000001</v>
+      </c>
+      <c r="E25" s="9">
         <f t="shared" si="1"/>
-        <v>4.223107569721115E-2</v>
+        <v>4.5742031872509956E-2</v>
       </c>
     </row>
   </sheetData>
